--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Slit2-Robo1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Slit2-Robo1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
   </si>
   <si>
     <t>Robo1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.0278127990858216</v>
+        <v>0.07387466666666667</v>
       </c>
       <c r="H2">
-        <v>0.0278127990858216</v>
+        <v>0.221624</v>
       </c>
       <c r="I2">
-        <v>0.009313867001196413</v>
+        <v>0.02329999915893589</v>
       </c>
       <c r="J2">
-        <v>0.009313867001196413</v>
+        <v>0.02329999915893589</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>16.8081832324232</v>
+        <v>0.1956266666666666</v>
       </c>
       <c r="N2">
-        <v>16.8081832324232</v>
+        <v>0.58688</v>
       </c>
       <c r="O2">
-        <v>0.68089245967261</v>
+        <v>0.007083239896715625</v>
       </c>
       <c r="P2">
-        <v>0.68089245967261</v>
+        <v>0.007083239896715625</v>
       </c>
       <c r="Q2">
-        <v>0.4674826232410619</v>
+        <v>0.01445185479111111</v>
       </c>
       <c r="R2">
-        <v>0.4674826232410619</v>
+        <v>0.13006669312</v>
       </c>
       <c r="S2">
-        <v>0.006341741811508182</v>
+        <v>0.0001650394836360152</v>
       </c>
       <c r="T2">
-        <v>0.006341741811508182</v>
+        <v>0.0001650394836360152</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,309 +587,929 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.0278127990858216</v>
+        <v>0.07387466666666667</v>
       </c>
       <c r="H3">
-        <v>0.0278127990858216</v>
+        <v>0.221624</v>
       </c>
       <c r="I3">
-        <v>0.009313867001196413</v>
+        <v>0.02329999915893589</v>
       </c>
       <c r="J3">
-        <v>0.009313867001196413</v>
+        <v>0.02329999915893589</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.87733500713109</v>
+        <v>16.87315566666667</v>
       </c>
       <c r="N3">
-        <v>7.87733500713109</v>
+        <v>50.619467</v>
       </c>
       <c r="O3">
-        <v>0.3191075403273899</v>
+        <v>0.6109423190513904</v>
       </c>
       <c r="P3">
-        <v>0.3191075403273899</v>
+        <v>0.6109423190513905</v>
       </c>
       <c r="Q3">
-        <v>0.219090735885046</v>
+        <v>1.246498750489778</v>
       </c>
       <c r="R3">
-        <v>0.219090735885046</v>
+        <v>11.218488754408</v>
       </c>
       <c r="S3">
-        <v>0.00297212518968823</v>
+        <v>0.01423495552005574</v>
       </c>
       <c r="T3">
-        <v>0.00297212518968823</v>
+        <v>0.01423495552005574</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.44618154757366</v>
+        <v>0.07387466666666667</v>
       </c>
       <c r="H4">
-        <v>2.44618154757366</v>
+        <v>0.221624</v>
       </c>
       <c r="I4">
-        <v>0.819169962885771</v>
+        <v>0.02329999915893589</v>
       </c>
       <c r="J4">
-        <v>0.819169962885771</v>
+        <v>0.02329999915893589</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>16.8081832324232</v>
+        <v>0.02753733333333333</v>
       </c>
       <c r="N4">
-        <v>16.8081832324232</v>
+        <v>0.082612</v>
       </c>
       <c r="O4">
-        <v>0.68089245967261</v>
+        <v>0.0009970702943488811</v>
       </c>
       <c r="P4">
-        <v>0.68089245967261</v>
+        <v>0.0009970702943488811</v>
       </c>
       <c r="Q4">
-        <v>41.11586767139062</v>
+        <v>0.002034311320888889</v>
       </c>
       <c r="R4">
-        <v>41.11586767139062</v>
+        <v>0.018308801888</v>
       </c>
       <c r="S4">
-        <v>0.5577666509192133</v>
+        <v>2.323173701972889E-05</v>
       </c>
       <c r="T4">
-        <v>0.5577666509192133</v>
+        <v>2.323173701972889E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.44618154757366</v>
+        <v>0.07387466666666667</v>
       </c>
       <c r="H5">
-        <v>2.44618154757366</v>
+        <v>0.221624</v>
       </c>
       <c r="I5">
-        <v>0.819169962885771</v>
+        <v>0.02329999915893589</v>
       </c>
       <c r="J5">
-        <v>0.819169962885771</v>
+        <v>0.02329999915893589</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.87733500713109</v>
+        <v>10.521927</v>
       </c>
       <c r="N5">
-        <v>7.87733500713109</v>
+        <v>31.565781</v>
       </c>
       <c r="O5">
-        <v>0.3191075403273899</v>
+        <v>0.3809773707575451</v>
       </c>
       <c r="P5">
-        <v>0.3191075403273899</v>
+        <v>0.3809773707575451</v>
       </c>
       <c r="Q5">
-        <v>19.2693915385001</v>
+        <v>0.7773038498160001</v>
       </c>
       <c r="R5">
-        <v>19.2693915385001</v>
+        <v>6.995734648344</v>
       </c>
       <c r="S5">
-        <v>0.2614033119665577</v>
+        <v>0.008876772418224408</v>
       </c>
       <c r="T5">
-        <v>0.2614033119665577</v>
+        <v>0.008876772418224408</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.5121766049172271</v>
+        <v>2.538883</v>
       </c>
       <c r="H6">
-        <v>0.5121766049172271</v>
+        <v>7.616649</v>
       </c>
       <c r="I6">
-        <v>0.1715161701130326</v>
+        <v>0.8007612681564715</v>
       </c>
       <c r="J6">
-        <v>0.1715161701130326</v>
+        <v>0.8007612681564716</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>16.8081832324232</v>
+        <v>0.1956266666666666</v>
       </c>
       <c r="N6">
-        <v>16.8081832324232</v>
+        <v>0.58688</v>
       </c>
       <c r="O6">
-        <v>0.68089245967261</v>
+        <v>0.007083239896715625</v>
       </c>
       <c r="P6">
-        <v>0.68089245967261</v>
+        <v>0.007083239896715625</v>
       </c>
       <c r="Q6">
-        <v>8.608758222809177</v>
+        <v>0.4966732183466666</v>
       </c>
       <c r="R6">
-        <v>8.608758222809177</v>
+        <v>4.47005896512</v>
       </c>
       <c r="S6">
-        <v>0.1167840669418885</v>
+        <v>0.005671984162350518</v>
       </c>
       <c r="T6">
-        <v>0.1167840669418885</v>
+        <v>0.005671984162350519</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.538883</v>
+      </c>
+      <c r="H7">
+        <v>7.616649</v>
+      </c>
+      <c r="I7">
+        <v>0.8007612681564715</v>
+      </c>
+      <c r="J7">
+        <v>0.8007612681564716</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>16.87315566666667</v>
+      </c>
+      <c r="N7">
+        <v>50.619467</v>
+      </c>
+      <c r="O7">
+        <v>0.6109423190513904</v>
+      </c>
+      <c r="P7">
+        <v>0.6109423190513905</v>
+      </c>
+      <c r="Q7">
+        <v>42.83896807845366</v>
+      </c>
+      <c r="R7">
+        <v>385.550712706083</v>
+      </c>
+      <c r="S7">
+        <v>0.489218946174047</v>
+      </c>
+      <c r="T7">
+        <v>0.4892189461740472</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.538883</v>
+      </c>
+      <c r="H8">
+        <v>7.616649</v>
+      </c>
+      <c r="I8">
+        <v>0.8007612681564715</v>
+      </c>
+      <c r="J8">
+        <v>0.8007612681564716</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.02753733333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.082612</v>
+      </c>
+      <c r="O8">
+        <v>0.0009970702943488811</v>
+      </c>
+      <c r="P8">
+        <v>0.0009970702943488811</v>
+      </c>
+      <c r="Q8">
+        <v>0.06991406746533332</v>
+      </c>
+      <c r="R8">
+        <v>0.6292266071880001</v>
+      </c>
+      <c r="S8">
+        <v>0.0007984152733439563</v>
+      </c>
+      <c r="T8">
+        <v>0.0007984152733439564</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.538883</v>
+      </c>
+      <c r="H9">
+        <v>7.616649</v>
+      </c>
+      <c r="I9">
+        <v>0.8007612681564715</v>
+      </c>
+      <c r="J9">
+        <v>0.8007612681564716</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>10.521927</v>
+      </c>
+      <c r="N9">
+        <v>31.565781</v>
+      </c>
+      <c r="O9">
+        <v>0.3809773707575451</v>
+      </c>
+      <c r="P9">
+        <v>0.3809773707575451</v>
+      </c>
+      <c r="Q9">
+        <v>26.713941587541</v>
+      </c>
+      <c r="R9">
+        <v>240.425474287869</v>
+      </c>
+      <c r="S9">
+        <v>0.30507192254673</v>
+      </c>
+      <c r="T9">
+        <v>0.3050719225467301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>2.5E-05</v>
+      </c>
+      <c r="H10">
+        <v>7.499999999999999E-05</v>
+      </c>
+      <c r="I10">
+        <v>7.884976071725948E-06</v>
+      </c>
+      <c r="J10">
+        <v>7.884976071725948E-06</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.1956266666666666</v>
+      </c>
+      <c r="N10">
+        <v>0.58688</v>
+      </c>
+      <c r="O10">
+        <v>0.007083239896715625</v>
+      </c>
+      <c r="P10">
+        <v>0.007083239896715625</v>
+      </c>
+      <c r="Q10">
+        <v>4.890666666666665E-06</v>
+      </c>
+      <c r="R10">
+        <v>4.401599999999999E-05</v>
+      </c>
+      <c r="S10">
+        <v>5.585117709589728E-08</v>
+      </c>
+      <c r="T10">
+        <v>5.585117709589728E-08</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>2.5E-05</v>
+      </c>
+      <c r="H11">
+        <v>7.499999999999999E-05</v>
+      </c>
+      <c r="I11">
+        <v>7.884976071725948E-06</v>
+      </c>
+      <c r="J11">
+        <v>7.884976071725948E-06</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>16.87315566666667</v>
+      </c>
+      <c r="N11">
+        <v>50.619467</v>
+      </c>
+      <c r="O11">
+        <v>0.6109423190513904</v>
+      </c>
+      <c r="P11">
+        <v>0.6109423190513905</v>
+      </c>
+      <c r="Q11">
+        <v>0.0004218288916666666</v>
+      </c>
+      <c r="R11">
+        <v>0.003796460025</v>
+      </c>
+      <c r="S11">
+        <v>4.817265566924973E-06</v>
+      </c>
+      <c r="T11">
+        <v>4.817265566924974E-06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>2.5E-05</v>
+      </c>
+      <c r="H12">
+        <v>7.499999999999999E-05</v>
+      </c>
+      <c r="I12">
+        <v>7.884976071725948E-06</v>
+      </c>
+      <c r="J12">
+        <v>7.884976071725948E-06</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.02753733333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.082612</v>
+      </c>
+      <c r="O12">
+        <v>0.0009970702943488811</v>
+      </c>
+      <c r="P12">
+        <v>0.0009970702943488811</v>
+      </c>
+      <c r="Q12">
+        <v>6.884333333333332E-07</v>
+      </c>
+      <c r="R12">
+        <v>6.195899999999999E-06</v>
+      </c>
+      <c r="S12">
+        <v>7.861875412769675E-09</v>
+      </c>
+      <c r="T12">
+        <v>7.861875412769675E-09</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>2.5E-05</v>
+      </c>
+      <c r="H13">
+        <v>7.499999999999999E-05</v>
+      </c>
+      <c r="I13">
+        <v>7.884976071725948E-06</v>
+      </c>
+      <c r="J13">
+        <v>7.884976071725948E-06</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>10.521927</v>
+      </c>
+      <c r="N13">
+        <v>31.565781</v>
+      </c>
+      <c r="O13">
+        <v>0.3809773707575451</v>
+      </c>
+      <c r="P13">
+        <v>0.3809773707575451</v>
+      </c>
+      <c r="Q13">
+        <v>0.000263048175</v>
+      </c>
+      <c r="R13">
+        <v>0.002367433575</v>
+      </c>
+      <c r="S13">
+        <v>3.003997452292308E-06</v>
+      </c>
+      <c r="T13">
+        <v>3.003997452292308E-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.5121766049172271</v>
-      </c>
-      <c r="H7">
-        <v>0.5121766049172271</v>
-      </c>
-      <c r="I7">
-        <v>0.1715161701130326</v>
-      </c>
-      <c r="J7">
-        <v>0.1715161701130326</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>7.87733500713109</v>
-      </c>
-      <c r="N7">
-        <v>7.87733500713109</v>
-      </c>
-      <c r="O7">
-        <v>0.3191075403273899</v>
-      </c>
-      <c r="P7">
-        <v>0.3191075403273899</v>
-      </c>
-      <c r="Q7">
-        <v>4.034586699748022</v>
-      </c>
-      <c r="R7">
-        <v>4.034586699748022</v>
-      </c>
-      <c r="S7">
-        <v>0.05473210317114401</v>
-      </c>
-      <c r="T7">
-        <v>0.05473210317114401</v>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.557804</v>
+      </c>
+      <c r="H14">
+        <v>1.673412</v>
+      </c>
+      <c r="I14">
+        <v>0.1759308477085208</v>
+      </c>
+      <c r="J14">
+        <v>0.1759308477085208</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.1956266666666666</v>
+      </c>
+      <c r="N14">
+        <v>0.58688</v>
+      </c>
+      <c r="O14">
+        <v>0.007083239896715625</v>
+      </c>
+      <c r="P14">
+        <v>0.007083239896715625</v>
+      </c>
+      <c r="Q14">
+        <v>0.1091213371733333</v>
+      </c>
+      <c r="R14">
+        <v>0.9820920345599998</v>
+      </c>
+      <c r="S14">
+        <v>0.001246160399551996</v>
+      </c>
+      <c r="T14">
+        <v>0.001246160399551996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.557804</v>
+      </c>
+      <c r="H15">
+        <v>1.673412</v>
+      </c>
+      <c r="I15">
+        <v>0.1759308477085208</v>
+      </c>
+      <c r="J15">
+        <v>0.1759308477085208</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>16.87315566666667</v>
+      </c>
+      <c r="N15">
+        <v>50.619467</v>
+      </c>
+      <c r="O15">
+        <v>0.6109423190513904</v>
+      </c>
+      <c r="P15">
+        <v>0.6109423190513905</v>
+      </c>
+      <c r="Q15">
+        <v>9.411913723489333</v>
+      </c>
+      <c r="R15">
+        <v>84.707223511404</v>
+      </c>
+      <c r="S15">
+        <v>0.1074836000917207</v>
+      </c>
+      <c r="T15">
+        <v>0.1074836000917207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.557804</v>
+      </c>
+      <c r="H16">
+        <v>1.673412</v>
+      </c>
+      <c r="I16">
+        <v>0.1759308477085208</v>
+      </c>
+      <c r="J16">
+        <v>0.1759308477085208</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.02753733333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.082612</v>
+      </c>
+      <c r="O16">
+        <v>0.0009970702943488811</v>
+      </c>
+      <c r="P16">
+        <v>0.0009970702943488811</v>
+      </c>
+      <c r="Q16">
+        <v>0.01536043468266667</v>
+      </c>
+      <c r="R16">
+        <v>0.138243912144</v>
+      </c>
+      <c r="S16">
+        <v>0.000175415422109783</v>
+      </c>
+      <c r="T16">
+        <v>0.000175415422109783</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.557804</v>
+      </c>
+      <c r="H17">
+        <v>1.673412</v>
+      </c>
+      <c r="I17">
+        <v>0.1759308477085208</v>
+      </c>
+      <c r="J17">
+        <v>0.1759308477085208</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>10.521927</v>
+      </c>
+      <c r="N17">
+        <v>31.565781</v>
+      </c>
+      <c r="O17">
+        <v>0.3809773707575451</v>
+      </c>
+      <c r="P17">
+        <v>0.3809773707575451</v>
+      </c>
+      <c r="Q17">
+        <v>5.869172968308</v>
+      </c>
+      <c r="R17">
+        <v>52.822556714772</v>
+      </c>
+      <c r="S17">
+        <v>0.06702567179513835</v>
+      </c>
+      <c r="T17">
+        <v>0.06702567179513835</v>
       </c>
     </row>
   </sheetData>
